--- a/data/case1/18/V2_3.xlsx
+++ b/data/case1/18/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999708156628</v>
+        <v>0.9999999914864568</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99480128256561651</v>
+        <v>0.99477089555072618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97481257091608131</v>
+        <v>0.97054306317861805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96593125418624193</v>
+        <v>0.96163082219314133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95749121001059057</v>
+        <v>0.95315842327265365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93945885749448199</v>
+        <v>0.93492815043348965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93502390461121232</v>
+        <v>0.93305499287636584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92954682666382649</v>
+        <v>0.92989797965076726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92388536165063928</v>
+        <v>0.92897543828649876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.91914739003026602</v>
+        <v>0.9289956229457168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.91853933778929997</v>
+        <v>0.92902421863774354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91763827517469876</v>
+        <v>0.92933545011056329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91505347646245661</v>
+        <v>0.93383865374226238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91466127482120196</v>
+        <v>0.93706510578361868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91567087634505606</v>
+        <v>0.9368996496091162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9174675337897179</v>
+        <v>0.93439339119663289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.91375961520763815</v>
+        <v>0.93068570630240988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.91265068641429492</v>
+        <v>0.92957681475905052</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99270537637578604</v>
+        <v>0.99371771246510487</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98558814664491989</v>
+        <v>0.98660077466705365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98418963033989293</v>
+        <v>0.98520230597107172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98292512067893878</v>
+        <v>0.98393780289916266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96777701912997283</v>
+        <v>0.96350732068572187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9547553849735877</v>
+        <v>0.95048547181469689</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94829825506857501</v>
+        <v>0.94402832199692932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93771325982341192</v>
+        <v>0.93237255297521648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93553126303350276</v>
+        <v>0.92905849054933576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9207690635776824</v>
+        <v>0.91719903998629293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91045377406973349</v>
+        <v>0.90904970395156492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90572222620866438</v>
+        <v>0.90510407559765094</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90477907370846511</v>
+        <v>0.89745075816450592</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90561766528572907</v>
+        <v>0.89577147020560333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90877802694006093</v>
+        <v>0.89525146953110002</v>
       </c>
     </row>
   </sheetData>
